--- a/biology/Botanique/Lygodiumsporites/Lygodiumsporites.xlsx
+++ b/biology/Botanique/Lygodiumsporites/Lygodiumsporites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lygodiumsporites est un genre fossile de fougères de la famille des Schizaeaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la Paleobiology Database                   (11 décembre 2023)[1], les fossiles sont découverts en Argentine, Chine, Inde, Cuba et aux États-Unis (Texas).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la Paleobiology Database                   (11 décembre 2023), les fossiles sont découverts en Argentine, Chine, Inde, Cuba et aux États-Unis (Texas).
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Lygodiumsporites a été décrit en 1956 par le minéralogiste et paléobotaniste allemand Robert Potonié (1889-1974)[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Lygodiumsporites a été décrit en 1956 par le minéralogiste et paléobotaniste allemand Robert Potonié (1889-1974),.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Palynodata (11 décembre 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Palynodata (11 décembre 2023) :
 †Lygodiumsporites adriennis
 †Lygodiumsporites ambiperforatus
 †Lygodiumsporites asper
@@ -618,11 +638,11 @@
 †Lygodiumsporites eocenicus
 †Lygodiumsporites exiguus
 †Lygodiumsporites formosus
-Selon la Paleobiology Database                   (11 décembre 2023)[1] :
+Selon la Paleobiology Database                   (11 décembre 2023) :
 †Lygodiumsporites edelii Mathur &amp; Chopra, 1982
 †Lygodiumsporites eocenicus Dutta &amp; Sah, 1970, holotype trouvé en Inde
 †Lygodiumsporites lakiensis Sah &amp; Kar, 1969
-Selon The International Fossil Plant Names Index (IFPNI)                (11 décembre 2023)[5] :
+Selon The International Fossil Plant Names Index (IFPNI)                (11 décembre 2023) :
 †Lygodiumsporites adriennis
 †Lygodiumsporites jakovlevii</t>
         </is>
